--- a/biology/Médecine/Anomalie_de_Pelger-Huet/Anomalie_de_Pelger-Huet.xlsx
+++ b/biology/Médecine/Anomalie_de_Pelger-Huet/Anomalie_de_Pelger-Huet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'anomalie de Pelger-Huet est un défaut héréditaire interférant avec la lobulation normale du noyau des granulocytes (polynucléaires) neutrophiles et éosinophiles. Le noyau apparaît sous forme de bâtonnet ou de sphère.
 Les mères des fœtus atteint de nanisme létal type Greenberg sont porteuses de cette anomalie. Cette anomalie serait la forme hétérozygote du déficit en 3-beta-hydroxysterol delta(14)-réductase.</t>
@@ -511,7 +523,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:215140 ncbi.nlm.nih.gov
  Portail de la médecine   Portail de l’hématologie                    </t>
